--- a/projects/puerto_rico_stoch/data/data_V.xlsx
+++ b/projects/puerto_rico_stoch/data/data_V.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4DDBC-CEDA-47DC-A550-75B1CD05EADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8DFEE-1ACF-4003-BDFE-F1319C1AF77C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="6840" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="ReserveMargin" sheetId="13" r:id="rId15"/>
     <sheet name="capacityFactorTOD" sheetId="14" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="226">
   <si>
     <t>connection</t>
   </si>
@@ -713,6 +716,12 @@
   </si>
   <si>
     <t>[fr]</t>
+  </si>
+  <si>
+    <t>Efficiency2</t>
+  </si>
+  <si>
+    <t>fuel2</t>
   </si>
 </sst>
 </file>
@@ -1146,12 +1155,12 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1245,7 +1254,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1261,7 +1270,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1275,7 +1284,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -1299,7 +1308,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -1307,7 +1316,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -1323,7 +1332,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -1347,7 +1356,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -1355,7 +1364,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>171</v>
       </c>
@@ -1363,7 +1372,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -1371,7 +1380,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -1387,7 +1396,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>220</v>
       </c>
@@ -1422,12 +1431,12 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1455,7 +1464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -1473,24 +1482,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D28"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.23046875" style="29"/>
+    <col min="6" max="6" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1504,22 +1514,25 @@
         <v>40</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
@@ -1533,22 +1546,25 @@
         <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -1561,19 +1577,19 @@
       <c r="D3" s="29">
         <v>34.799999999999997</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="6">
+      <c r="H3" s="9"/>
+      <c r="I3" s="6">
         <v>75</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -1586,17 +1602,17 @@
       <c r="D4" s="29">
         <v>29.9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="7">
+      <c r="H4" s="9"/>
+      <c r="I4" s="7">
         <v>50</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -1609,17 +1625,17 @@
       <c r="D5" s="29">
         <v>40</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="7">
+      <c r="H5" s="9"/>
+      <c r="I5" s="7">
         <v>50</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -1632,17 +1648,17 @@
       <c r="D6" s="29">
         <v>35.299999999999997</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="7">
+      <c r="H6" s="9"/>
+      <c r="I6" s="7">
         <v>55</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -1655,17 +1671,17 @@
       <c r="D7" s="29">
         <v>34.6</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="7">
+      <c r="H7" s="9"/>
+      <c r="I7" s="7">
         <v>65</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -1678,17 +1694,17 @@
       <c r="D8" s="29">
         <v>34.1</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="7">
+      <c r="H8" s="9"/>
+      <c r="I8" s="7">
         <v>65</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -1701,19 +1717,19 @@
       <c r="D9" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="6">
+      <c r="H9" s="9"/>
+      <c r="I9" s="6">
         <v>100</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -1726,19 +1742,19 @@
       <c r="D10" s="29">
         <v>19</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="6">
+      <c r="H10" s="9"/>
+      <c r="I10" s="6">
         <v>45</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -1751,19 +1767,19 @@
       <c r="D11" s="29">
         <v>45.5</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="6">
+      <c r="H11" s="9"/>
+      <c r="I11" s="6">
         <v>55</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -1776,19 +1792,19 @@
       <c r="D12" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="6">
+      <c r="H12" s="9"/>
+      <c r="I12" s="6">
         <v>30</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -1801,19 +1817,19 @@
       <c r="D13" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="6">
+      <c r="H13" s="9"/>
+      <c r="I13" s="6">
         <v>30</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
@@ -1824,19 +1840,20 @@
       <c r="D14" s="25">
         <v>85</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="22"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="22">
+      <c r="H14" s="22"/>
+      <c r="I14" s="22">
         <v>15</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
@@ -1849,19 +1866,20 @@
       <c r="D15" s="25">
         <v>25.3</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="22"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G15" s="22"/>
-      <c r="H15" s="23">
+      <c r="H15" s="22"/>
+      <c r="I15" s="23">
         <v>45</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
@@ -1874,19 +1892,20 @@
       <c r="D16" s="25">
         <v>38.799999999999997</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="22"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="22">
+      <c r="H16" s="22"/>
+      <c r="I16" s="22">
         <v>75</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
@@ -1899,19 +1918,20 @@
       <c r="D17" s="25">
         <v>51.7</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="22"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G17" s="22"/>
-      <c r="H17" s="22">
+      <c r="H17" s="22"/>
+      <c r="I17" s="22">
         <v>55</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
@@ -1924,19 +1944,20 @@
       <c r="D18" s="25">
         <v>51.7</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="22"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="22">
+      <c r="H18" s="22"/>
+      <c r="I18" s="22">
         <v>55</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
@@ -1949,19 +1970,20 @@
       <c r="D19" s="25">
         <v>62.12</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="22"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="22">
+      <c r="H19" s="22"/>
+      <c r="I19" s="22">
         <v>55</v>
       </c>
-      <c r="I19" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
@@ -1974,19 +1996,20 @@
       <c r="D20" s="25">
         <v>42.34</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="22"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="23">
+      <c r="H20" s="22"/>
+      <c r="I20" s="23">
         <v>55</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
@@ -1999,19 +2022,20 @@
       <c r="D21" s="25">
         <v>36.799999999999997</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="22">
+      <c r="H21" s="22"/>
+      <c r="I21" s="22">
         <v>30</v>
       </c>
-      <c r="I21" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
@@ -2024,19 +2048,20 @@
       <c r="D22" s="25">
         <v>36.799999999999997</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="22">
+      <c r="H22" s="22"/>
+      <c r="I22" s="22">
         <v>30</v>
       </c>
-      <c r="I22" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2047,19 +2072,19 @@
       <c r="D23" s="29">
         <v>85</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="9">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
         <v>15</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2072,19 +2097,19 @@
       <c r="D24" s="29">
         <v>25.3</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9">
+      <c r="F24" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9">
         <v>45</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2097,19 +2122,19 @@
       <c r="D25" s="29">
         <v>54.17</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="6">
+      <c r="F25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="6">
         <v>55</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2122,19 +2147,19 @@
       <c r="D26" s="29">
         <v>37.11</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9">
+      <c r="F26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
         <v>55</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2147,19 +2172,19 @@
       <c r="D27" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9">
+      <c r="G27" s="6"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9">
         <v>30</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2172,15 +2197,15 @@
       <c r="D28" s="29">
         <v>36.799999999999997</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9">
+      <c r="G28" s="6"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9">
         <v>30</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2198,18 +2223,18 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2232,7 +2257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2255,7 +2280,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2274,7 +2299,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2293,7 +2318,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2312,7 +2337,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2331,7 +2356,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -2350,7 +2375,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -2369,7 +2394,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -2392,7 +2417,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -2411,7 +2436,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -2430,7 +2455,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -2449,7 +2474,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -2468,7 +2493,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
@@ -2491,7 +2516,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
@@ -2514,7 +2539,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
@@ -2537,7 +2562,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
@@ -2558,7 +2583,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
@@ -2579,7 +2604,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
@@ -2602,7 +2627,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
@@ -2625,7 +2650,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
@@ -2648,7 +2673,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
@@ -2671,7 +2696,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2694,7 +2719,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2717,7 +2742,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2740,7 +2765,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2763,7 +2788,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2786,7 +2811,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2809,7 +2834,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -2829,18 +2854,18 @@
       <selection activeCell="F21" sqref="F21:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2863,7 +2888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2886,7 +2911,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2897,7 +2922,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2908,7 +2933,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2919,7 +2944,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2930,7 +2955,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -2941,7 +2966,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -2952,7 +2977,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -2965,35 +2990,35 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
@@ -3004,7 +3029,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
@@ -3019,7 +3044,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
@@ -3034,7 +3059,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
@@ -3049,7 +3074,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
@@ -3064,7 +3089,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
@@ -3079,7 +3104,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
@@ -3090,7 +3115,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
@@ -3103,7 +3128,7 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
@@ -3116,13 +3141,13 @@
       </c>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3134,7 +3159,7 @@
       </c>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -3146,13 +3171,13 @@
       </c>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3160,7 +3185,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3182,14 +3207,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3203,7 +3228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3217,7 +3242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3231,7 +3256,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3245,7 +3270,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
@@ -3259,7 +3284,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
@@ -3273,7 +3298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
@@ -3287,7 +3312,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
@@ -3301,7 +3326,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
@@ -3315,7 +3340,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -3329,7 +3354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
@@ -3343,7 +3368,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
@@ -3357,7 +3382,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
@@ -3371,7 +3396,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
@@ -3385,7 +3410,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
@@ -3399,7 +3424,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
@@ -3413,7 +3438,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
@@ -3427,7 +3452,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
@@ -3441,7 +3466,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
@@ -3455,7 +3480,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
@@ -3469,7 +3494,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
@@ -3483,7 +3508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>113</v>
       </c>
@@ -3497,7 +3522,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
@@ -3511,7 +3536,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
@@ -3525,7 +3550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
@@ -3539,7 +3564,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
@@ -3567,14 +3592,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -3582,7 +3607,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -3590,7 +3615,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.36215000000000003</v>
       </c>
@@ -3604,19 +3629,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -3633,7 +3658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3650,7 +3675,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -3667,7 +3692,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -3684,7 +3709,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
@@ -3701,7 +3726,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
@@ -3718,7 +3743,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
@@ -3735,7 +3760,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -3752,7 +3777,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -3769,7 +3794,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
@@ -3786,7 +3811,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>95</v>
       </c>
@@ -3803,7 +3828,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -3820,7 +3845,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -3837,7 +3862,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
@@ -3854,7 +3879,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
@@ -3871,7 +3896,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
@@ -3888,7 +3913,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
@@ -3905,7 +3930,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
@@ -3922,7 +3947,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>95</v>
       </c>
@@ -3939,7 +3964,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
@@ -3956,7 +3981,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>95</v>
       </c>
@@ -3973,7 +3998,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -3990,7 +4015,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -4007,7 +4032,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>95</v>
       </c>
@@ -4024,7 +4049,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
@@ -4041,7 +4066,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
@@ -4058,7 +4083,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -4075,7 +4100,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4092,7 +4117,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>95</v>
       </c>
@@ -4109,7 +4134,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -4126,7 +4151,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
@@ -4143,7 +4168,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -4160,7 +4185,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -4177,7 +4202,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
@@ -4194,7 +4219,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
@@ -4211,7 +4236,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -4228,7 +4253,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -4245,7 +4270,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>95</v>
       </c>
@@ -4262,7 +4287,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
@@ -4279,7 +4304,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
@@ -4296,7 +4321,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
@@ -4313,7 +4338,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
@@ -4330,7 +4355,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -4347,7 +4372,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
@@ -4364,7 +4389,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
@@ -4381,7 +4406,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
@@ -4398,7 +4423,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
@@ -4415,7 +4440,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
@@ -4432,7 +4457,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -4449,7 +4474,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -4466,7 +4491,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
@@ -4483,7 +4508,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
@@ -4500,7 +4525,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
@@ -4517,7 +4542,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
@@ -4534,7 +4559,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>96</v>
       </c>
@@ -4551,7 +4576,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
@@ -4568,7 +4593,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>96</v>
       </c>
@@ -4585,7 +4610,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>96</v>
       </c>
@@ -4602,7 +4627,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>96</v>
       </c>
@@ -4619,7 +4644,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
@@ -4636,7 +4661,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
@@ -4653,7 +4678,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
@@ -4670,7 +4695,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>96</v>
       </c>
@@ -4687,7 +4712,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>96</v>
       </c>
@@ -4704,7 +4729,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
@@ -4721,7 +4746,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>96</v>
       </c>
@@ -4738,7 +4763,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>96</v>
       </c>
@@ -4755,7 +4780,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
@@ -4772,7 +4797,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
@@ -4789,7 +4814,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>96</v>
       </c>
@@ -4806,7 +4831,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -4823,7 +4848,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
@@ -4840,7 +4865,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>96</v>
       </c>
@@ -4857,7 +4882,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>96</v>
       </c>
@@ -4874,7 +4899,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
@@ -4891,7 +4916,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
@@ -4908,7 +4933,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
@@ -4925,7 +4950,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
@@ -4942,7 +4967,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>96</v>
       </c>
@@ -4959,7 +4984,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>96</v>
       </c>
@@ -4976,7 +5001,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>96</v>
       </c>
@@ -4993,7 +5018,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>96</v>
       </c>
@@ -5010,7 +5035,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>96</v>
       </c>
@@ -5027,7 +5052,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
@@ -5044,7 +5069,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
@@ -5061,7 +5086,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
@@ -5078,7 +5103,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -5095,7 +5120,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>96</v>
       </c>
@@ -5112,7 +5137,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
@@ -5129,7 +5154,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
@@ -5146,7 +5171,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>96</v>
       </c>
@@ -5163,7 +5188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>96</v>
       </c>
@@ -5180,7 +5205,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -5197,7 +5222,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
@@ -5214,7 +5239,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
@@ -5231,7 +5256,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -5248,7 +5273,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -5265,7 +5290,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -5294,13 +5319,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -5311,7 +5336,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5322,7 +5347,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -5333,7 +5358,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -5357,13 +5382,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -5374,7 +5399,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5385,7 +5410,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>185</v>
       </c>
@@ -5396,7 +5421,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -5407,7 +5432,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -5418,7 +5443,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -5429,7 +5454,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -5440,7 +5465,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -5451,7 +5476,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -5462,7 +5487,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -5473,7 +5498,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -5484,7 +5509,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -5495,7 +5520,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -5506,7 +5531,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -5517,7 +5542,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -5528,7 +5553,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -5539,7 +5564,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -5550,7 +5575,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -5561,7 +5586,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -5572,7 +5597,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -5583,7 +5608,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -5594,7 +5619,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -5605,7 +5630,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -5616,7 +5641,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -5627,7 +5652,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -5638,7 +5663,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -5663,19 +5688,19 @@
       <selection activeCell="F10" sqref="F10:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5710,7 +5735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5745,7 +5770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -5780,7 +5805,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -5811,7 +5836,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -5846,7 +5871,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -5881,7 +5906,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -5901,7 +5926,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5936,7 +5961,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -5971,7 +5996,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -5994,7 +6019,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -6017,7 +6042,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -6040,7 +6065,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -6063,7 +6088,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -6100,13 +6125,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6120,7 +6145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -6134,7 +6159,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6148,7 +6173,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -6162,7 +6187,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -6176,7 +6201,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -6204,12 +6229,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6223,7 +6248,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6237,7 +6262,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -6251,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -6265,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -6279,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2031</v>
       </c>
@@ -6293,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2036</v>
       </c>
@@ -6307,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2041</v>
       </c>
@@ -6335,13 +6360,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -6349,7 +6374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6357,7 +6382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.09</v>
       </c>
@@ -6378,21 +6403,21 @@
       <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -6430,7 +6455,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6468,7 +6493,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -6495,7 +6520,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -6525,7 +6550,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -6554,7 +6579,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -6569,7 +6594,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -6590,7 +6615,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -6619,7 +6644,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -6651,7 +6676,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -6665,7 +6690,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -6687,20 +6712,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3046875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -6708,28 +6734,31 @@
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
@@ -6740,7 +6769,7 @@
         <v>66</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>78</v>
@@ -6755,780 +6784,809 @@
         <v>78</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4">
         <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5">
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="F6" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6">
         <v>0.91</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7">
         <v>0.91</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8">
         <v>0.91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11">
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="F13" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="F14" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="H14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="I14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>130</v>
       </c>
       <c r="H15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="F16" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16">
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17">
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="F18" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18">
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="E19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="G19" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19">
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="E20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="F20" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="G20" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20">
         <v>0.91</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>130</v>
       </c>
       <c r="H21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="E22" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>130</v>
       </c>
       <c r="H22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="F23" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="29" t="s">
         <v>130</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>130</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.95</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="F25" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25">
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="F26" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26">
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="29" t="s">
         <v>130</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>130</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="29" t="s">
         <v>130</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>130</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.36</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D15 D19:D28 F19:H28 F3:H15">
+  <conditionalFormatting sqref="E3:E15 E19:E28 G19:I28 G3:I15">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D18 F16:H18">
+  <conditionalFormatting sqref="E16:E18 G16:I18">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E15 E19:E28">
+  <conditionalFormatting sqref="F3:F15 F19:F28">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E18">
+  <conditionalFormatting sqref="F16:F18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
